--- a/mainadminhtml/samplefile/MIS/upsitypeclassify.xlsx
+++ b/mainadminhtml/samplefile/MIS/upsitypeclassify.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\future\mainadminhtml\samplefile\MIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\drreddys\mainadminhtml\samplefile\MIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Name Of Upsi</t>
   </si>
@@ -39,19 +39,65 @@
   </si>
   <si>
     <t>Added By</t>
+  </si>
+  <si>
+    <t>Email Id</t>
+  </si>
+  <si>
+    <t>PAN</t>
+  </si>
+  <si>
+    <t>Any other legal identifier</t>
+  </si>
+  <si>
+    <t>Any other legal identification number</t>
+  </si>
+  <si>
+    <t>Aadhaar</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Educational Qualification</t>
+  </si>
+  <si>
+    <t>Institute From Which Acquired</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Mobile No</t>
+  </si>
+  <si>
+    <t>Holdings In Shares</t>
+  </si>
+  <si>
+    <t>Holdings In ADRs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -74,8 +120,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -368,9 +415,20 @@
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
     <col min="3" max="4" width="19.5703125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" customWidth="1"/>
+    <col min="9" max="9" width="34.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="37.5703125" customWidth="1"/>
+    <col min="14" max="14" width="42.42578125" customWidth="1"/>
+    <col min="15" max="15" width="27.7109375" customWidth="1"/>
+    <col min="16" max="16" width="18.28515625" customWidth="1"/>
+    <col min="17" max="17" width="18" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" customWidth="1"/>
+    <col min="19" max="19" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -385,9 +443,49 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/mainadminhtml/samplefile/MIS/upsitypeclassify.xlsx
+++ b/mainadminhtml/samplefile/MIS/upsitypeclassify.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Name Of Upsi</t>
   </si>
@@ -39,45 +39,6 @@
   </si>
   <si>
     <t>Added By</t>
-  </si>
-  <si>
-    <t>Email Id</t>
-  </si>
-  <si>
-    <t>PAN</t>
-  </si>
-  <si>
-    <t>Any other legal identifier</t>
-  </si>
-  <si>
-    <t>Any other legal identification number</t>
-  </si>
-  <si>
-    <t>Aadhaar</t>
-  </si>
-  <si>
-    <t>DOB</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Educational Qualification</t>
-  </si>
-  <si>
-    <t>Institute From Which Acquired</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Mobile No</t>
-  </si>
-  <si>
-    <t>Holdings In Shares</t>
-  </si>
-  <si>
-    <t>Holdings In ADRs</t>
   </si>
 </sst>
 </file>
@@ -405,9 +366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -444,45 +403,19 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mainadminhtml/samplefile/MIS/upsitypeclassify.xlsx
+++ b/mainadminhtml/samplefile/MIS/upsitypeclassify.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\drreddys\mainadminhtml\samplefile\MIS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,13 +33,13 @@
     <t>Creation Date</t>
   </si>
   <si>
-    <t>Added By</t>
+    <t>Shared By</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -144,7 +139,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -179,7 +174,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -356,7 +351,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -366,7 +361,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/mainadminhtml/samplefile/MIS/upsitypeclassify.xlsx
+++ b/mainadminhtml/samplefile/MIS/upsitypeclassify.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\drreddys\mainadminhtml\samplefile\MIS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Name Of Upsi</t>
   </si>
@@ -34,12 +39,15 @@
   </si>
   <si>
     <t>Shared By</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -351,7 +359,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -362,7 +370,7 @@
   <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,7 +408,9 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
